--- a/game-test/assets/map/map.xlsx
+++ b/game-test/assets/map/map.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910057" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3058026" uniqueCount="2">
   <si>
     <t/>
   </si>

--- a/game-test/assets/map/map.xlsx
+++ b/game-test/assets/map/map.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3058026" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074467" uniqueCount="2">
   <si>
     <t/>
   </si>
